--- a/tut05/output/0501CS03.xlsx
+++ b/tut05/output/0501CS03.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.714285714285714</v>
+        <v>7.71</v>
       </c>
       <c r="C6" t="n">
-        <v>7.840909090909091</v>
+        <v>7.84</v>
       </c>
       <c r="D6" t="n">
-        <v>7.465116279069767</v>
+        <v>7.47</v>
       </c>
       <c r="E6" t="n">
-        <v>8.595744680851064</v>
+        <v>8.6</v>
       </c>
       <c r="F6" t="n">
-        <v>9.19047619047619</v>
+        <v>9.19</v>
       </c>
       <c r="G6" t="n">
         <v>9.050000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>9.121951219512194</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>9.1</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.714285714285714</v>
+        <v>7.71</v>
       </c>
       <c r="C8" t="n">
-        <v>7.774193548387097</v>
+        <v>7.77</v>
       </c>
       <c r="D8" t="n">
-        <v>7.676470588235294</v>
+        <v>7.68</v>
       </c>
       <c r="E8" t="n">
-        <v>7.912568306010929</v>
+        <v>7.91</v>
       </c>
       <c r="F8" t="n">
-        <v>8.151111111111112</v>
+        <v>8.15</v>
       </c>
       <c r="G8" t="n">
-        <v>8.28679245283019</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.398692810457517</v>
+        <v>8.4</v>
       </c>
       <c r="I8" t="n">
-        <v>8.479768786127167</v>
+        <v>8.48</v>
       </c>
     </row>
   </sheetData>
